--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,64 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>424400</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -742,13 +745,16 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>272000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -771,13 +777,16 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>152400</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>44400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>402300</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>22100</v>
       </c>
       <c r="E18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-7100</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,95 +1104,107 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>12900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>5200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>7100</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,95 +1619,105 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>11000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1745,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>19000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>119200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>218700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>429700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>461300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>459500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>456900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>454500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>453200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>451400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>509300</v>
+      </c>
+      <c r="E54" s="3">
         <v>429800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>462000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>459800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>457500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>455100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>453500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>451700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,133 +2095,146 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>19500</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>334700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2111,13 +2253,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15800</v>
+        <v>34200</v>
       </c>
       <c r="E62" s="3">
         <v>15800</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>423800</v>
+      </c>
+      <c r="E66" s="3">
         <v>24600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>16000</v>
       </c>
       <c r="G66" s="3">
         <v>16000</v>
       </c>
       <c r="H66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I66" s="3">
         <v>15800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,13 +2555,16 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5000</v>
+        <v>-20500</v>
       </c>
       <c r="E72" s="3">
         <v>5000</v>
@@ -2403,19 +2576,22 @@
         <v>5000</v>
       </c>
       <c r="H72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I72" s="3">
         <v>4300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E76" s="3">
         <v>405300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>442000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>443800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>441500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>439300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>437400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>435700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,22 +3164,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+        <v>-184900</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -2961,14 +3190,17 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E8" s="3">
         <v>424400</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -734,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>97400</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -748,25 +752,28 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E9" s="3">
         <v>272000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>61600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -780,25 +787,28 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E10" s="3">
         <v>152400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>35800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,17 +907,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,31 +936,34 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E15" s="3">
         <v>44400</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>10300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -948,14 +971,17 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E17" s="3">
         <v>402300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>88700</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,45 +1076,49 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
-        <v>2500</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>12600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1092,8 +1129,8 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>19100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1107,25 +1144,28 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>12900</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>3000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1133,63 +1173,69 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
-        <v>2400</v>
-      </c>
       <c r="H23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>1700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1197,14 +1243,17 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
-        <v>2400</v>
-      </c>
       <c r="H26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
-        <v>2400</v>
-      </c>
       <c r="H27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
-        <v>2400</v>
-      </c>
       <c r="H33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
-        <v>2400</v>
-      </c>
       <c r="H35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,49 +1706,53 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E41" s="3">
         <v>125400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E42" s="3">
         <v>11000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1678,22 +1768,25 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>3900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1710,14 +1803,17 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,81 +1844,90 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E46" s="3">
         <v>151500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E47" s="3">
         <v>19000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1838,23 +1943,26 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E48" s="3">
         <v>119200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1870,23 +1978,26 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E49" s="3">
         <v>218700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1902,14 +2013,17 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,31 +2101,34 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>429700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>461300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>459500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>456900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>454500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>453200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>451400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>550700</v>
+      </c>
+      <c r="E54" s="3">
         <v>509300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>429800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>462000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>459800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>457500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>455100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>453500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>451700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,17 +2226,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E57" s="3">
         <v>19500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2122,23 +2253,26 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2154,90 +2288,99 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
         <v>20400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E60" s="3">
         <v>54900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>384800</v>
+      </c>
+      <c r="E61" s="3">
         <v>334700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2256,16 +2399,19 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E62" s="3">
         <v>34200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>15800</v>
       </c>
       <c r="F62" s="3">
         <v>15800</v>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E66" s="3">
         <v>423800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>16000</v>
       </c>
       <c r="H66" s="3">
         <v>16000</v>
       </c>
       <c r="I66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J66" s="3">
         <v>15800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,16 +2729,19 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5000</v>
       </c>
       <c r="F72" s="3">
         <v>5000</v>
@@ -2579,19 +2753,22 @@
         <v>5000</v>
       </c>
       <c r="I72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J72" s="3">
         <v>4300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E76" s="3">
         <v>85500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>405300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>442000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>443800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>441500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>439300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>437400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>435700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
-        <v>2400</v>
-      </c>
       <c r="H81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3031,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+        <v>10400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>10300</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>49000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
-        <v>300</v>
-      </c>
       <c r="G89" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3291,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-5600</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,17 +3394,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-184900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3185,22 +3415,25 @@
         <v>4</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E100" s="3">
         <v>169600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E102" s="3">
         <v>33600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>105200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>424400</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>104300</v>
+      </c>
+      <c r="I8" s="3">
         <v>97400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -755,29 +759,32 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>68000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>272000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3">
+        <v>66100</v>
+      </c>
+      <c r="I9" s="3">
         <v>61600</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,29 +797,32 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>37200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>152400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="3">
+        <v>38200</v>
+      </c>
+      <c r="I10" s="3">
         <v>35800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
+        <v>600</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,49 +959,55 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E15" s="3">
         <v>10400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>44400</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I15" s="3">
         <v>10300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E17" s="3">
         <v>103100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>402300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
-        <v>4400</v>
-      </c>
       <c r="H17" s="3">
+        <v>95000</v>
+      </c>
+      <c r="I17" s="3">
         <v>88700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I18" s="3">
         <v>8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,43 +1120,46 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>2600</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E21" s="3">
         <v>12600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1130,11 +1167,11 @@
         <v>4</v>
       </c>
       <c r="H21" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I21" s="3">
         <v>19100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,113 +1184,125 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I23" s="3">
         <v>5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1576,75 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>7100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,55 +1793,59 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E41" s="3">
         <v>166500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>500</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E42" s="3">
         <v>14000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1771,14 +1861,17 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1788,8 +1881,8 @@
       <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>3900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1806,14 +1899,17 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,90 +1943,99 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E46" s="3">
         <v>195000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>151500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E47" s="3">
         <v>16000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1946,26 +2051,29 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E48" s="3">
         <v>125500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1981,26 +2089,29 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>207600</v>
+      </c>
+      <c r="E49" s="3">
         <v>213300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>218700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2016,14 +2127,17 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
+        <v>900</v>
+      </c>
+      <c r="G52" s="3">
         <v>429700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>461300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>459500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>456900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>454500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>453200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>451400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>525300</v>
+      </c>
+      <c r="E54" s="3">
         <v>550700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>509300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>429800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>462000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>459800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>457500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>455100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>453500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>451700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,20 +2357,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E57" s="3">
         <v>23700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2256,14 +2387,17 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,11 +2405,11 @@
         <v>18300</v>
       </c>
       <c r="E58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2291,99 +2425,108 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E60" s="3">
         <v>47100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>380700</v>
+      </c>
+      <c r="E61" s="3">
         <v>384800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>334700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2402,19 +2545,22 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E62" s="3">
         <v>34100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>15800</v>
       </c>
       <c r="G62" s="3">
         <v>15800</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>460200</v>
+      </c>
+      <c r="E66" s="3">
         <v>466000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>423800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>16000</v>
       </c>
       <c r="I66" s="3">
         <v>16000</v>
       </c>
       <c r="J66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K66" s="3">
         <v>15800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,19 +2903,22 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>5000</v>
       </c>
       <c r="G72" s="3">
         <v>5000</v>
@@ -2756,19 +2930,22 @@
         <v>5000</v>
       </c>
       <c r="J72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E76" s="3">
         <v>84600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>405300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>442000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>443800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>441500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>439300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>437400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>435700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,17 +3230,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E83" s="3">
         <v>10400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3050,16 +3249,16 @@
         <v>4</v>
       </c>
       <c r="H83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I83" s="3">
         <v>10300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-3600</v>
-      </c>
       <c r="G89" s="3">
-        <v>-17700</v>
+        <v>-29500</v>
       </c>
       <c r="H89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I89" s="3">
         <v>17900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,17 +3512,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,16 +3531,16 @@
         <v>4</v>
       </c>
       <c r="H91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-5600</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-184900</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>44000</v>
       </c>
       <c r="H94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>49200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>169600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E102" s="3">
         <v>41100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33600</v>
       </c>
-      <c r="F102" s="3">
-        <v>-600</v>
-      </c>
       <c r="G102" s="3">
-        <v>-3000</v>
+        <v>-7700</v>
       </c>
       <c r="H102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I102" s="3">
         <v>3100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,95 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>424400</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>101300</v>
+      </c>
+      <c r="I8" s="3">
         <v>104300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>97400</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -762,32 +766,35 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>68000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>272000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3">
+        <v>65700</v>
+      </c>
+      <c r="I9" s="3">
         <v>66100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -800,32 +807,35 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>37200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>152400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="I10" s="3">
         <v>38200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,23 +947,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -962,52 +982,58 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
         <v>10600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>44400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H15" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I15" s="3">
         <v>10700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10300</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E17" s="3">
         <v>24200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>103100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>402300</v>
       </c>
-      <c r="G17" s="3">
-        <v>5300</v>
-      </c>
       <c r="H17" s="3">
+        <v>100300</v>
+      </c>
+      <c r="I17" s="3">
         <v>95000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,11 +1157,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7100</v>
       </c>
-      <c r="G20" s="3">
-        <v>2000</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1135,46 +1169,49 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>27500</v>
       </c>
       <c r="H21" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I21" s="3">
         <v>20000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,122 +1224,134 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,11 +1649,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>7100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1591,60 +1661,66 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,61 +1880,65 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E41" s="3">
         <v>148800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>166500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E42" s="3">
         <v>17000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1864,14 +1954,17 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1884,8 +1977,8 @@
       <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>3900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1902,14 +1995,17 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,99 +2042,108 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E46" s="3">
         <v>179800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>195000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>151500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E47" s="3">
         <v>13000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2054,29 +2159,32 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E48" s="3">
         <v>123800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>125500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2092,29 +2200,32 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E49" s="3">
         <v>207600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>213300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>218700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2130,14 +2241,17 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
         <v>429700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>461300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>459500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>456900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>454500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>453200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>451400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>564600</v>
+      </c>
+      <c r="E54" s="3">
         <v>525300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>550700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>509300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>429800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>462000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>459800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>457500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>455100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>453500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>451700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,23 +2488,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E57" s="3">
         <v>27300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2390,14 +2521,17 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,11 +2542,11 @@
         <v>18300</v>
       </c>
       <c r="F58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2428,108 +2562,117 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E60" s="3">
         <v>50500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>330800</v>
+      </c>
+      <c r="E61" s="3">
         <v>380700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>384800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>334700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2548,22 +2691,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E62" s="3">
         <v>29000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>15800</v>
       </c>
       <c r="H62" s="3">
         <v>15800</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>406600</v>
+      </c>
+      <c r="E66" s="3">
         <v>460200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>466000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>423800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>16000</v>
       </c>
       <c r="J66" s="3">
         <v>16000</v>
       </c>
       <c r="K66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="L66" s="3">
         <v>15800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,22 +3077,25 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>5000</v>
       </c>
       <c r="H72" s="3">
         <v>5000</v>
@@ -2933,19 +3107,22 @@
         <v>5000</v>
       </c>
       <c r="K72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L72" s="3">
         <v>4300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E76" s="3">
         <v>65000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>405300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>442000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>443800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>441500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>439300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>437400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>435700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,37 +3429,38 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E83" s="3">
         <v>10600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10400</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>12500</v>
       </c>
       <c r="H83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I83" s="3">
         <v>10700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
-        <v>49000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-29500</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I89" s="3">
         <v>8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,37 +3733,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-900</v>
       </c>
       <c r="H91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5600</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-184900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>44000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>49200</v>
       </c>
-      <c r="F100" s="3">
-        <v>169600</v>
-      </c>
       <c r="G100" s="3">
-        <v>-30400</v>
+        <v>39500</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>99600</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>41100</v>
       </c>
-      <c r="F102" s="3">
-        <v>33600</v>
-      </c>
       <c r="G102" s="3">
-        <v>-7700</v>
+        <v>14200</v>
       </c>
       <c r="H102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F8" s="3">
         <v>136300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>105200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>424400</v>
-      </c>
       <c r="H8" s="3">
+        <v>106500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>125700</v>
+      </c>
+      <c r="J8" s="3">
         <v>101300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>104300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>97400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -769,38 +776,44 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F9" s="3">
         <v>91800</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>68000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>272000</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
+        <v>138700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>360600</v>
+      </c>
+      <c r="J9" s="3">
         <v>65700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>66100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>61600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -810,38 +823,44 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F10" s="3">
         <v>44500</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>37200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>152400</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-234900</v>
+      </c>
+      <c r="J10" s="3">
         <v>35600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>38200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,29 +983,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -985,55 +1024,67 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>10600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10400</v>
       </c>
-      <c r="G15" s="3">
-        <v>44400</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J15" s="3">
         <v>10800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>10700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>10300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>86400</v>
+      </c>
+      <c r="F17" s="3">
         <v>127300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>24200</v>
       </c>
-      <c r="F17" s="3">
-        <v>103100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>402300</v>
-      </c>
       <c r="H17" s="3">
+        <v>104300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>132500</v>
+      </c>
+      <c r="J17" s="3">
         <v>100300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>95000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>88700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F18" s="3">
         <v>9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-23800</v>
       </c>
-      <c r="F18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>22100</v>
-      </c>
       <c r="H18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,79 +1210,87 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-7100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-9800</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F21" s="3">
         <v>20000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-13200</v>
       </c>
-      <c r="F21" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>27500</v>
-      </c>
       <c r="H21" s="3">
+        <v>62600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J21" s="3">
         <v>11800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>19100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,131 +1300,155 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="G22" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F23" s="3">
         <v>5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-26300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2100</v>
-      </c>
       <c r="H23" s="3">
+        <v>47900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6600</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
         <v>-5100</v>
       </c>
       <c r="F24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>12100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-21300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>12100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-21300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-8500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>12100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-21300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H33" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>12100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-21300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H35" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,70 +2052,78 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>134500</v>
+      </c>
+      <c r="F41" s="3">
         <v>179100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>148800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>166500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>125400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>14000</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>14000</v>
       </c>
       <c r="G42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I42" s="3">
         <v>11000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1957,22 +2136,28 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="F43" s="3">
         <v>3900</v>
@@ -1980,11 +2165,11 @@
       <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1998,14 +2183,20 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,111 +2236,129 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>152000</v>
+      </c>
+      <c r="F46" s="3">
         <v>209700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>179800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>195000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>151500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16000</v>
+        <v>30800</v>
       </c>
       <c r="E47" s="3">
-        <v>13000</v>
+        <v>30100</v>
       </c>
       <c r="F47" s="3">
         <v>16000</v>
       </c>
       <c r="G47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I47" s="3">
         <v>19000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2162,35 +2371,41 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>143600</v>
+      </c>
+      <c r="F48" s="3">
         <v>130700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>123800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>125500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>119200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2203,35 +2418,41 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>228700</v>
+      </c>
+      <c r="F49" s="3">
         <v>206200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>207600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>213300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>218700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2244,14 +2465,20 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>429700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>461300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>459500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>456900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>454500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>453200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>451400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>560200</v>
+      </c>
+      <c r="F54" s="3">
         <v>564600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>525300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>550700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>509300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>429800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>462000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>459800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>457500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>455100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>453500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>451700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,28 +2748,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F57" s="3">
         <v>20300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>27300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>23700</v>
       </c>
-      <c r="G57" s="3">
-        <v>19500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>17100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2524,14 +2785,20 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2545,14 +2812,14 @@
         <v>18300</v>
       </c>
       <c r="G58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2565,120 +2832,138 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F59" s="3">
         <v>14100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
-        <v>20400</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F60" s="3">
         <v>52600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>50500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>47100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>54900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>341800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>321900</v>
+      </c>
+      <c r="F61" s="3">
         <v>330800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>380700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>384800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>334700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2694,28 +2979,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F62" s="3">
         <v>23300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>29000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>34100</v>
       </c>
-      <c r="G62" s="3">
-        <v>34200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>15800</v>
-      </c>
       <c r="I62" s="3">
-        <v>15800</v>
+        <v>95600</v>
       </c>
       <c r="J62" s="3">
         <v>15800</v>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>458400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>432400</v>
+      </c>
+      <c r="F66" s="3">
         <v>406600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>460200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>466000</v>
       </c>
-      <c r="G66" s="3">
-        <v>423800</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>485300</v>
+      </c>
+      <c r="J66" s="3">
         <v>24600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>20000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,28 +3421,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-43700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22400</v>
       </c>
-      <c r="G72" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>5000</v>
-      </c>
       <c r="I72" s="3">
-        <v>5000</v>
+        <v>-30300</v>
       </c>
       <c r="J72" s="3">
         <v>5000</v>
@@ -3110,19 +3457,25 @@
         <v>5000</v>
       </c>
       <c r="L72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N72" s="3">
         <v>4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>127900</v>
+      </c>
+      <c r="F76" s="3">
         <v>158000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>65000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>84600</v>
       </c>
-      <c r="G76" s="3">
-        <v>85500</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J76" s="3">
         <v>405300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>442000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>443800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>441500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>439300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>437400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>435700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>12100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-21300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H81" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>10600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F89" s="3">
         <v>21400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>19600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-184900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>44000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>28000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>49200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>39500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>99600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="F102" s="3">
         <v>30300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>41100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>11700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,122 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F8" s="3">
         <v>147100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>74400</v>
       </c>
-      <c r="F8" s="3">
-        <v>136300</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>135100</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>106500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>125700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>101300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>104300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>97400</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -782,44 +790,50 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>135800</v>
+      </c>
+      <c r="F9" s="3">
         <v>98900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>49300</v>
       </c>
-      <c r="F9" s="3">
-        <v>91800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3">
+        <v>90600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>138700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>360600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>65700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>66100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>61600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,44 +843,50 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F10" s="3">
         <v>48200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>25100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>44500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J10" s="3">
         <v>-32200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-234900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>35800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,35 +1023,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,61 +1070,73 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F15" s="3">
         <v>12100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>11500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>11000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>10600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>10400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>10800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>10700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>10300</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F17" s="3">
         <v>137500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>86400</v>
       </c>
-      <c r="F17" s="3">
-        <v>127300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>126100</v>
+      </c>
+      <c r="I17" s="3">
         <v>24200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>104300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>132500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>95000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>88700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F18" s="3">
         <v>9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-23800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>8700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,91 +1278,99 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>8500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="J20" s="3">
         <v>50000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-9800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F21" s="3">
         <v>18900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M21" s="3">
         <v>20000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>62600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>19100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,149 +1380,173 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-26300</v>
-      </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="J23" s="3">
         <v>47900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-20000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-6600</v>
       </c>
       <c r="G24" s="3">
         <v>-5100</v>
       </c>
       <c r="H24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-21300</v>
-      </c>
       <c r="H26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="J26" s="3">
         <v>48000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-22400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-21300</v>
-      </c>
       <c r="H27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="J27" s="3">
         <v>48000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-22400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-8500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>25500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-50000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>9800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-21300</v>
-      </c>
       <c r="H33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="J33" s="3">
         <v>48000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-22400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-21300</v>
-      </c>
       <c r="H35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="J35" s="3">
         <v>48000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-22400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,82 +2226,90 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>178500</v>
+      </c>
+      <c r="F41" s="3">
         <v>172700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>134500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>179100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>148800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>166500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>125400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>14000</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>14000</v>
       </c>
       <c r="I42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K42" s="3">
         <v>11000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2142,28 +2322,34 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>3300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3900</v>
       </c>
       <c r="H43" s="3">
         <v>3900</v>
@@ -2171,11 +2357,11 @@
       <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3900</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2189,14 +2375,20 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,129 +2434,147 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F45" s="3">
         <v>15100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>10500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>195800</v>
+      </c>
+      <c r="F46" s="3">
         <v>187800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>152000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>209700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>179800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>195000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>151500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F47" s="3">
         <v>30800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>30100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>13000</v>
       </c>
       <c r="H47" s="3">
         <v>16000</v>
       </c>
       <c r="I47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K47" s="3">
         <v>19000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2377,41 +2587,47 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>144700</v>
+      </c>
+      <c r="F48" s="3">
         <v>143700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>143600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>130700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>123800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>125500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>119200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2424,41 +2640,47 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>219400</v>
+      </c>
+      <c r="F49" s="3">
         <v>223600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>228700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>206200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>207600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>213300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>218700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2471,14 +2693,20 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>429700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>461300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>459500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>456900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>454500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>453200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>451400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>600800</v>
+      </c>
+      <c r="F54" s="3">
         <v>589800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>560200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>564600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>525300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>550700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>509300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>429800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>462000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>459800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>457500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>455100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>453500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>451700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +3010,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F57" s="3">
         <v>10600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>23700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>20300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>27300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>23700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>17100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2791,14 +3053,20 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2818,14 +3086,14 @@
         <v>18300</v>
       </c>
       <c r="I58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2838,138 +3106,156 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F59" s="3">
         <v>27400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>22800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F60" s="3">
         <v>56200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>52400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>52600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>50500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>47100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>54900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>309700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>326800</v>
+      </c>
+      <c r="F61" s="3">
         <v>341800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>321900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>330800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>380700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>384800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>334700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,34 +3271,40 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F62" s="3">
         <v>60300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>58100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>23300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>29000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>34100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>95600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>15800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>15800</v>
       </c>
       <c r="L62" s="3">
         <v>15800</v>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="S62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>448900</v>
+      </c>
+      <c r="F66" s="3">
         <v>458400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>432400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>406600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>460200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>466000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>485300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,34 +3769,40 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-50300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-43300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-43700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>5000</v>
       </c>
       <c r="L72" s="3">
         <v>5000</v>
@@ -3463,19 +3811,25 @@
         <v>5000</v>
       </c>
       <c r="N72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P72" s="3">
         <v>4300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>151900</v>
+      </c>
+      <c r="F76" s="3">
         <v>131400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>127900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>158000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>65000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>84600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>24000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>405300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>442000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>443800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>441500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>439300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>437400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>435700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-21300</v>
-      </c>
       <c r="H81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="J81" s="3">
         <v>48000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-22400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F83" s="3">
         <v>12100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>11000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>10600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>10300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>19600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-13500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-38300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-184900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>44000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F100" s="3">
         <v>19100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>28000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>49200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>39500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>99600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F102" s="3">
         <v>38200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-44700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>30300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-17700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>41100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>14200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -1295,7 +1295,7 @@
         <v>-2800</v>
       </c>
       <c r="G20" s="3">
-        <v>8500</v>
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
         <v>-5300</v>
@@ -1348,7 +1348,7 @@
         <v>18900</v>
       </c>
       <c r="G21" s="3">
-        <v>8000</v>
+        <v>1400</v>
       </c>
       <c r="H21" s="3">
         <v>14700</v>
@@ -1454,7 +1454,7 @@
         <v>3400</v>
       </c>
       <c r="G23" s="3">
-        <v>-7000</v>
+        <v>-13700</v>
       </c>
       <c r="H23" s="3">
         <v>200</v>
@@ -1613,7 +1613,7 @@
         <v>1500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1900</v>
+        <v>-8500</v>
       </c>
       <c r="H26" s="3">
         <v>6800</v>
@@ -1666,7 +1666,7 @@
         <v>1500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1900</v>
+        <v>-8500</v>
       </c>
       <c r="H27" s="3">
         <v>6800</v>
@@ -1931,7 +1931,7 @@
         <v>2800</v>
       </c>
       <c r="G32" s="3">
-        <v>-8500</v>
+        <v>-1900</v>
       </c>
       <c r="H32" s="3">
         <v>5300</v>
@@ -1984,7 +1984,7 @@
         <v>1500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1900</v>
+        <v>-8500</v>
       </c>
       <c r="H33" s="3">
         <v>6800</v>
@@ -2090,7 +2090,7 @@
         <v>1500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1900</v>
+        <v>-8500</v>
       </c>
       <c r="H35" s="3">
         <v>6800</v>
@@ -4166,7 +4166,7 @@
         <v>1500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1900</v>
+        <v>-8500</v>
       </c>
       <c r="H81" s="3">
         <v>6800</v>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,135 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>192300</v>
+      </c>
+      <c r="F8" s="3">
         <v>193400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>202000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>147100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>74400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>135100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>106500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>125700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>101300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>104300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>97400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -796,50 +803,56 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F9" s="3">
         <v>129700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>135800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>98900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>49300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>90600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>138700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>360600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>65700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>66100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>61600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -849,50 +862,56 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F10" s="3">
         <v>63700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>66200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>48200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>25100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>44500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-32200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-234900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>35600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>35800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,41 +1062,47 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>1200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1076,67 +1115,79 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F15" s="3">
         <v>12700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>12500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>12100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>11500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>10600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>10400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>12500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>10800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>10700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>10300</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>176400</v>
+      </c>
+      <c r="F17" s="3">
         <v>174700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>177000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>137500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>86400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>126100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>24200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>104300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>132500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>95000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>88700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F18" s="3">
         <v>18700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>9600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-23800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>8700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,103 +1345,111 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-25500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>50000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-9800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F21" s="3">
         <v>30500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>34200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>18900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>14700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-38700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>62600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>20000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>19100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,167 +1459,191 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F23" s="3">
         <v>14700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>18400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-51800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>47900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-6600</v>
       </c>
       <c r="I24" s="3">
         <v>-5100</v>
       </c>
       <c r="J24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F26" s="3">
         <v>10800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-46800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>48000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-22400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F27" s="3">
         <v>10800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-46800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>48000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-22400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>25500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-50000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>9800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F33" s="3">
         <v>10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-46800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>48000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-22400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F35" s="3">
         <v>10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-46800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>48000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-22400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,94 +2399,102 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>198800</v>
+      </c>
+      <c r="F41" s="3">
         <v>179900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>178500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>172700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>134500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>179100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>148800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>166500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>125400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>32100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>14000</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>14000</v>
       </c>
       <c r="K42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M42" s="3">
         <v>11000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2328,34 +2507,40 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>3300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3900</v>
       </c>
       <c r="J43" s="3">
         <v>3900</v>
@@ -2363,11 +2548,11 @@
       <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3900</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2381,14 +2566,20 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,147 +2631,165 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F45" s="3">
         <v>17600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>17300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>10100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>254600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>248000</v>
+      </c>
+      <c r="F46" s="3">
         <v>198200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>195800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>187800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>152000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>209700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>179800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>195000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>151500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>37600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>38100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>30800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>30100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>13000</v>
       </c>
       <c r="J47" s="3">
         <v>16000</v>
       </c>
       <c r="K47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="M47" s="3">
         <v>19000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2593,47 +2802,53 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>152300</v>
+      </c>
+      <c r="F48" s="3">
         <v>147700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>144700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>143700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>143600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>130700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>123800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>125500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>119200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2646,47 +2861,53 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>212800</v>
+      </c>
+      <c r="F49" s="3">
         <v>213800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>219400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>223600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>228700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>206200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>207600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>213300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>218700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2699,14 +2920,20 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,52 +3059,58 @@
         <v>3100</v>
       </c>
       <c r="E52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>429700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>461300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>459500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>456900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>454500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>453200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>451400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>624500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>616100</v>
+      </c>
+      <c r="F54" s="3">
         <v>600300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>600800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>589800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>560200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>564600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>525300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>550700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>509300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>429800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>462000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>459800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>457500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>455100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>453500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>451700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,41 +3271,43 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>23700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>20300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>27300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>23700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,22 +3320,28 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="E58" s="3">
-        <v>18300</v>
+        <v>17500</v>
       </c>
       <c r="F58" s="3">
         <v>18300</v>
@@ -3092,14 +3359,14 @@
         <v>18300</v>
       </c>
       <c r="K58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="M58" s="3">
         <v>15000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3112,156 +3379,174 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F59" s="3">
         <v>37300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>29100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>27400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>22800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>71800</v>
+      </c>
+      <c r="F60" s="3">
         <v>65500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>58000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>56200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>52400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>52600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>50500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>47100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>54900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>323100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>324000</v>
+      </c>
+      <c r="F61" s="3">
         <v>309700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>326800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>341800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>321900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>330800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>380700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>384800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>334700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,40 +3562,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F62" s="3">
         <v>61000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>64100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>60300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>58100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>23300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>29000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>34100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>95600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>15800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>15800</v>
       </c>
       <c r="N62" s="3">
         <v>15800</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="U62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>457700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>457600</v>
+      </c>
+      <c r="F66" s="3">
         <v>436200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>448900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>458400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>432400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>406600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>460200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>466000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>485300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>24600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>16000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,40 +4116,46 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-37800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-50300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-43300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-43700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-30300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>5000</v>
       </c>
       <c r="N72" s="3">
         <v>5000</v>
@@ -3817,19 +4164,25 @@
         <v>5000</v>
       </c>
       <c r="P72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R72" s="3">
         <v>4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>166800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>158500</v>
+      </c>
+      <c r="F76" s="3">
         <v>164100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>151900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>131400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>127900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>158000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>65000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>84600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>24000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>405300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>442000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>443800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>441500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>439300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>437400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>435700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F81" s="3">
         <v>10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-46800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>48000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-22400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F83" s="3">
         <v>12700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>12500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>12100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>10800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F89" s="3">
         <v>26100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>32600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>21400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>19600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>17900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-8100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-13500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-11300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-38300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-184900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>44000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-17300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-15400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>28000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>49200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>39500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>99600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>38200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-44700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>30300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-17700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>41100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E8" s="3">
         <v>196900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>192300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>193400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>202000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>135100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>104300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97400</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -809,53 +813,56 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E9" s="3">
         <v>132600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>129600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>129700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>135800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>98900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>138700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>66100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,53 +875,56 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E10" s="3">
         <v>64300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>63700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>48200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-32200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-234900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,44 +1085,47 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,73 +1141,79 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9400</v>
+        <v>10200</v>
       </c>
       <c r="E15" s="3">
         <v>9400</v>
       </c>
       <c r="F15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G15" s="3">
         <v>12700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10300</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E17" s="3">
         <v>175700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>176400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>174700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>177000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>137500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>86400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>126100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>104300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E18" s="3">
         <v>21200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,44 +1380,45 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1392,67 +1426,70 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E21" s="3">
         <v>34000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-38700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>62600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,185 +1502,197 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3000</v>
       </c>
       <c r="F22" s="3">
         <v>3000</v>
       </c>
       <c r="G22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3300</v>
       </c>
       <c r="N22" s="3">
         <v>3300</v>
       </c>
       <c r="O22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E23" s="3">
         <v>20600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>15800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-46800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E27" s="3">
         <v>15800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-46800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,44 +2122,47 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2100,81 +2170,87 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E33" s="3">
         <v>15800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-46800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E35" s="3">
         <v>15800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-46800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E41" s="3">
         <v>194900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>198800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>179900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>178500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>172700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>179100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>148800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>166500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2471,8 +2561,8 @@
       <c r="E42" s="3">
         <v>32100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>32100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2480,24 +2570,24 @@
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2513,37 +2603,40 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>3300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3900</v>
       </c>
       <c r="K43" s="3">
         <v>3900</v>
@@ -2554,8 +2647,8 @@
       <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>3900</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2572,37 +2665,40 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>6100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2637,126 +2733,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E45" s="3">
         <v>27600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E46" s="3">
         <v>254600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>248000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>198200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>195800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>187800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>152000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>209700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>179800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>195000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>151500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2766,33 +2871,33 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>37600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>38100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2808,50 +2913,53 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>189600</v>
+      </c>
+      <c r="E48" s="3">
         <v>157300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>152300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>147700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>144700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>143700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>143600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>130700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2867,50 +2975,53 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>326100</v>
+      </c>
+      <c r="E49" s="3">
         <v>209500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>212800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>213800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>219400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>223600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>228700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>206200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>207600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>213300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>218700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2926,14 +3037,17 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>900</v>
       </c>
       <c r="M52" s="3">
         <v>900</v>
       </c>
       <c r="N52" s="3">
+        <v>900</v>
+      </c>
+      <c r="O52" s="3">
         <v>429700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>461300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>459500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>456900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>454500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>453200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>451400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>816600</v>
+      </c>
+      <c r="E54" s="3">
         <v>624500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>616100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>589800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>560200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>564600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>525300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>550700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>509300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>429800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>462000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>459800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>457500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>455100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>453500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>451700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,44 +3403,45 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E57" s="3">
         <v>19400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3326,25 +3457,28 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E58" s="3">
         <v>18500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>18300</v>
       </c>
       <c r="G58" s="3">
         <v>18300</v>
@@ -3365,11 +3499,11 @@
         <v>18300</v>
       </c>
       <c r="M58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="N58" s="3">
         <v>15000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3385,171 +3519,180 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E59" s="3">
         <v>34500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E60" s="3">
         <v>72400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>65500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>58000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>52400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>478600</v>
+      </c>
+      <c r="E61" s="3">
         <v>323100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>324000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>309700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>326800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>341800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>321900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>330800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>380700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>384800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>334700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3568,43 +3711,46 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E62" s="3">
         <v>62300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>61800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>61000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>64100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>60300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>95600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>15800</v>
       </c>
       <c r="O62" s="3">
         <v>15800</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E66" s="3">
         <v>457700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>457600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>436200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>448900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>458400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>432400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>406600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>460200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>466000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>485300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>16000</v>
       </c>
       <c r="Q66" s="3">
         <v>16000</v>
       </c>
       <c r="R66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S66" s="3">
         <v>15800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,43 +4293,46 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-43300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>5000</v>
       </c>
       <c r="O72" s="3">
         <v>5000</v>
@@ -4170,19 +4344,22 @@
         <v>5000</v>
       </c>
       <c r="R72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S72" s="3">
         <v>4300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E76" s="3">
         <v>166800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>158500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>164100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>151900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>131400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>127900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>158000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>65000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>405300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>442000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>443800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>441500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>439300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>437400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>435700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E81" s="3">
         <v>15800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-46800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,58 +4820,59 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9400</v>
+        <v>10200</v>
       </c>
       <c r="E83" s="3">
         <v>9400</v>
       </c>
       <c r="F83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G83" s="3">
         <v>12700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E89" s="3">
         <v>22100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,58 +5278,59 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-184900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>44000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>28000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>49200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>99600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,149 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E8" s="3">
         <v>227900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>196900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>192300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>193400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>202000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>147100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>125700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>104300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97400</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -816,56 +820,59 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>187500</v>
+      </c>
+      <c r="E9" s="3">
         <v>155400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>129600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>129700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>135800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>98900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>138700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>360600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>65700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>66100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,56 +885,59 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E10" s="3">
         <v>72500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>63700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>48200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-32200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-234900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,36 +1119,36 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1144,76 +1164,82 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E15" s="3">
         <v>10200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>9400</v>
       </c>
       <c r="F15" s="3">
         <v>9400</v>
       </c>
       <c r="G15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H15" s="3">
         <v>12700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10300</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E17" s="3">
         <v>200600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>175700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>176400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>174700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>177000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>137500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E18" s="3">
         <v>27300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,47 +1414,48 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>50000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1429,70 +1463,73 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E21" s="3">
         <v>43200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>34000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-38700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>62600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,194 +1542,206 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3000</v>
       </c>
       <c r="G22" s="3">
         <v>3000</v>
       </c>
       <c r="H22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3300</v>
       </c>
       <c r="O22" s="3">
         <v>3300</v>
       </c>
       <c r="P22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E23" s="3">
         <v>29200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E26" s="3">
         <v>22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-46800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E27" s="3">
         <v>22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-46800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,47 +2192,50 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-50000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2173,84 +2243,90 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E33" s="3">
         <v>22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-46800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E35" s="3">
         <v>22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-46800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E41" s="3">
         <v>220200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>194900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>198800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>179900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>178500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>172700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>179100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>148800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>166500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>500</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2564,8 +2654,8 @@
       <c r="F42" s="3">
         <v>32100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>32100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -2573,24 +2663,24 @@
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,40 +2696,43 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
         <v>10900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>3300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3900</v>
       </c>
       <c r="L43" s="3">
         <v>3900</v>
@@ -2650,8 +2743,8 @@
       <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>3900</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2668,23 +2761,26 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E44" s="3">
         <v>6100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2700,8 +2796,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2736,132 +2832,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E45" s="3">
         <v>18800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>283700</v>
+      </c>
+      <c r="E46" s="3">
         <v>288000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>254600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>248000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>198200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>195800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>187800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>152000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>209700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>179800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>195000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>151500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2874,33 +2979,33 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
         <v>37600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>38100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2916,53 +3021,56 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E48" s="3">
         <v>189600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>157300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>152300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>147700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>144700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>143700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>143600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>130700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>123800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>119200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2978,53 +3086,56 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E49" s="3">
         <v>326100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>209500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>212800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>213800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>219400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>223600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>228700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>206200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>207600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>213300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>218700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3040,14 +3151,17 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>900</v>
       </c>
       <c r="N52" s="3">
         <v>900</v>
       </c>
       <c r="O52" s="3">
+        <v>900</v>
+      </c>
+      <c r="P52" s="3">
         <v>429700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>461300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>459500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>456900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>454500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>453200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>451400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>838300</v>
+      </c>
+      <c r="E54" s="3">
         <v>816600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>624500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>616100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>589800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>560200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>564600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>525300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>550700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>509300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>429800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>462000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>459800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>457500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>455100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>453500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>451700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,47 +3534,48 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E57" s="3">
         <v>22200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3460,14 +3591,17 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,13 +3609,13 @@
         <v>23500</v>
       </c>
       <c r="E58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F58" s="3">
         <v>18500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>18300</v>
       </c>
       <c r="H58" s="3">
         <v>18300</v>
@@ -3502,11 +3636,11 @@
         <v>18300</v>
       </c>
       <c r="N58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="O58" s="3">
         <v>15000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3522,180 +3656,189 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E59" s="3">
         <v>40400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E60" s="3">
         <v>86000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>58000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E61" s="3">
         <v>478600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>323100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>324000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>309700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>326800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>341800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>321900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>330800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>380700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>384800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>334700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3714,46 +3857,49 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E62" s="3">
         <v>78100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>61800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>64100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>60300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>58100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>95600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>15800</v>
       </c>
       <c r="P62" s="3">
         <v>15800</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>657500</v>
+      </c>
+      <c r="E66" s="3">
         <v>642700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>457700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>457600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>436200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>448900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>458400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>432400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>406600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>460200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>466000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>485300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>16000</v>
       </c>
       <c r="R66" s="3">
         <v>16000</v>
       </c>
       <c r="S66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="T66" s="3">
         <v>15800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,46 +4467,49 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E72" s="3">
         <v>18000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>5000</v>
       </c>
       <c r="P72" s="3">
         <v>5000</v>
@@ -4347,19 +4521,22 @@
         <v>5000</v>
       </c>
       <c r="S72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T72" s="3">
         <v>4300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>180900</v>
+      </c>
+      <c r="E76" s="3">
         <v>173900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>158500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>164100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>151900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>131400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>127900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>158000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>65000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>405300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>442000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>443800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>441500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>439300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>437400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>435700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E81" s="3">
         <v>22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-46800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,61 +5019,62 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E83" s="3">
         <v>10200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>9400</v>
       </c>
       <c r="F83" s="3">
         <v>9400</v>
       </c>
       <c r="G83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H83" s="3">
         <v>12700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E89" s="3">
         <v>19200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,61 +5499,62 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-130900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-184900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>44000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>137000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>28000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>49200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>99600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>25300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>41100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,155 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E8" s="3">
         <v>267000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>227900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>196900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>192300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>193400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>202000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>147100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>101300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>104300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97400</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -823,59 +826,62 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E9" s="3">
         <v>187500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>155400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>129600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>129700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>135800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>98900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>138700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>360600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>66100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61600</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,59 +894,62 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E10" s="3">
         <v>79500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>63700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>48200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-32200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-234900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,36 +1141,36 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1167,79 +1186,85 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E15" s="3">
         <v>13300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9400</v>
       </c>
       <c r="G15" s="3">
         <v>9400</v>
       </c>
       <c r="H15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I15" s="3">
         <v>12700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10300</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E17" s="3">
         <v>243700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>175700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>176400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>174700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>177000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>137500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>126100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E18" s="3">
         <v>23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,50 +1447,51 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>10300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>50000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1466,73 +1499,76 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E21" s="3">
         <v>46900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>43200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-38700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>62600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1545,203 +1581,215 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3000</v>
       </c>
       <c r="H22" s="3">
         <v>3000</v>
       </c>
       <c r="I22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3300</v>
       </c>
       <c r="P22" s="3">
         <v>3300</v>
       </c>
       <c r="Q22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E23" s="3">
         <v>27400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-51800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E26" s="3">
         <v>22400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-46800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E27" s="3">
         <v>22400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-46800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,50 +2261,53 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-50000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2246,87 +2315,93 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E33" s="3">
         <v>22400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-46800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E35" s="3">
         <v>22400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-46800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E41" s="3">
         <v>212100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>220200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>194900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>198800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>179900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>178500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>172700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>179100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>148800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
-      </c>
-      <c r="S41" s="3">
-        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2657,8 +2746,8 @@
       <c r="G42" s="3">
         <v>32100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>32100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2666,24 +2755,24 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2699,43 +2788,46 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>3300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3900</v>
       </c>
       <c r="M43" s="3">
         <v>3900</v>
@@ -2746,8 +2838,8 @@
       <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>3900</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2764,14 +2856,17 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2779,11 +2874,11 @@
         <v>6900</v>
       </c>
       <c r="E44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F44" s="3">
         <v>6100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2799,8 +2894,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2835,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E45" s="3">
         <v>22400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>299200</v>
+      </c>
+      <c r="E46" s="3">
         <v>283700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>288000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>254600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>248000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>198200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>195800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>187800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>152000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>209700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>179800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>195000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>151500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2982,33 +3086,33 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>37600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>38100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3024,56 +3128,59 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>211800</v>
+      </c>
+      <c r="E48" s="3">
         <v>206800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>189600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>157300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>152300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>147700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>143700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>143600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>130700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>123800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>119200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3089,56 +3196,59 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>331400</v>
+      </c>
+      <c r="E49" s="3">
         <v>330200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>326100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>209500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>212800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>213800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>219400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>223600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>228700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>206200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>207600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>213300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>218700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3154,14 +3264,17 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E52" s="3">
         <v>17600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>900</v>
       </c>
       <c r="O52" s="3">
         <v>900</v>
       </c>
       <c r="P52" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q52" s="3">
         <v>429700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>461300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>459500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>456900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>454500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>453200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>451400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>862800</v>
+      </c>
+      <c r="E54" s="3">
         <v>838300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>816600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>624500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>616100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>589800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>560200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>564600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>525300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>550700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>509300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>429800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>462000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>459800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>457500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>455100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>453500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>451700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,50 +3664,51 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E57" s="3">
         <v>21600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3594,14 +3724,17 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3612,13 +3745,13 @@
         <v>23500</v>
       </c>
       <c r="F58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G58" s="3">
         <v>18500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>18300</v>
       </c>
       <c r="I58" s="3">
         <v>18300</v>
@@ -3639,11 +3772,11 @@
         <v>18300</v>
       </c>
       <c r="O58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="P58" s="3">
         <v>15000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3659,189 +3792,198 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E59" s="3">
         <v>47600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E60" s="3">
         <v>92700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>65500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>58000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>518600</v>
+      </c>
+      <c r="E61" s="3">
         <v>498000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>478600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>323100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>324000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>309700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>326800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>341800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>321900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>330800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>380700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>384800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>334700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3860,49 +4002,52 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E62" s="3">
         <v>66800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>78100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>61000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>64100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>60300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>95600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>15800</v>
       </c>
       <c r="Q62" s="3">
         <v>15800</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>684200</v>
+      </c>
+      <c r="E66" s="3">
         <v>657500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>642700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>457700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>457600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>436200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>448900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>458400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>432400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>406600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>460200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>466000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>485300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>16000</v>
       </c>
       <c r="S66" s="3">
         <v>16000</v>
       </c>
       <c r="T66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="U66" s="3">
         <v>15800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,49 +4640,52 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E72" s="3">
         <v>40500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>5000</v>
       </c>
       <c r="Q72" s="3">
         <v>5000</v>
@@ -4524,19 +4697,22 @@
         <v>5000</v>
       </c>
       <c r="T72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U72" s="3">
         <v>4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E76" s="3">
         <v>180900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>173900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>158500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>164100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>151900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>127900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>158000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>65000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>405300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>442000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>443800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>441500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>439300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>437400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>435700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E81" s="3">
         <v>22400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-46800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,64 +5217,65 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>9400</v>
       </c>
       <c r="G83" s="3">
         <v>9400</v>
       </c>
       <c r="H83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I83" s="3">
         <v>12700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E89" s="3">
         <v>37000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,64 +5719,65 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-130900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-184900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>44000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>137000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>28000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>49200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>99600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>41100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACEL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>ACEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,169 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>293200</v>
+      </c>
+      <c r="F8" s="3">
         <v>278100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>267000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>227900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>196900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>192300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>193400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>202000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>147100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>74400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>135100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>106500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>125700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>101300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>104300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>97400</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -829,65 +837,71 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>205000</v>
+      </c>
+      <c r="F9" s="3">
         <v>195300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>187500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>155400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>132600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>129600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>129700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>135800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>98900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>49300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>90600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>138700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>360600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>65700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>66100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>61600</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,65 +911,71 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>88200</v>
+      </c>
+      <c r="F10" s="3">
         <v>82800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>79500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>72500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>64300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>62700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>63700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>66200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>48200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>44500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-32200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-234900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>35600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>38200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>35800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,39 +1184,39 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1189,82 +1229,94 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F15" s="3">
         <v>13900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>13300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>9400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>9400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>12700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>12100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>11500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>10600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>10400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>12500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>10800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>10700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>10300</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>265500</v>
+      </c>
+      <c r="F17" s="3">
         <v>253000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>243700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>175700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>176400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>174700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>177000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>137500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>86400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>126100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>24200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>104300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>132500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>95000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>88700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F18" s="3">
         <v>25100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>23300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>27300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>21200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>18700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>25000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-23800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>8700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1514,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-4800</v>
       </c>
       <c r="E20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>10300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-25500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>50000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,56 +1599,56 @@
         <v>39100</v>
       </c>
       <c r="E21" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>39100</v>
+      </c>
+      <c r="G21" s="3">
         <v>46900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>43200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>34000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>22400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>34200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>18900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>14700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-38700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>62600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>11800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>20000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>19100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,212 +1658,236 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F22" s="3">
         <v>7600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F23" s="3">
         <v>17500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>27400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>29200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>10100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-51800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>47900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-6600</v>
       </c>
       <c r="N24" s="3">
         <v>-5100</v>
       </c>
       <c r="O24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F26" s="3">
         <v>13400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>22400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>22500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>15800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-46800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>48000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F27" s="3">
         <v>13400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>22400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>22500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>15800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-46800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>48000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-10300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>25500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-50000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>9800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F33" s="3">
         <v>13400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>22400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>22500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>15800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-46800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>48000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F35" s="3">
         <v>13400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>22400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>22500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>15800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-46800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>48000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,81 +2833,89 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>233400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>228500</v>
+      </c>
+      <c r="F41" s="3">
         <v>224100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>212100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>220200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>194900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>198800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>179900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>178500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>172700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>134500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>179100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>148800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>166500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>125400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>32100</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>32100</v>
@@ -2749,36 +2929,36 @@
       <c r="H42" s="3">
         <v>32100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+      <c r="I42" s="3">
+        <v>32100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>32100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>14000</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
         <v>14000</v>
       </c>
       <c r="P42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R42" s="3">
         <v>11000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2791,49 +2971,55 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F43" s="3">
         <v>11700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>3300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3900</v>
       </c>
       <c r="O43" s="3">
         <v>3900</v>
@@ -2841,11 +3027,11 @@
       <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3900</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2859,32 +3045,38 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F44" s="3">
         <v>6900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2897,11 +3089,11 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2933,144 +3125,162 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F45" s="3">
         <v>24400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>27600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>17100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>17600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>17300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>12700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>10100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>10500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>280900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>299300</v>
+      </c>
+      <c r="F46" s="3">
         <v>299200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>283700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>288000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>254600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>248000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>198200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>195800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>187800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>152000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>209700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>179800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>195000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>151500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3089,36 +3299,36 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>37600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>38100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>30800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>30100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>16000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>13000</v>
       </c>
       <c r="O47" s="3">
         <v>16000</v>
       </c>
       <c r="P47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="R47" s="3">
         <v>19000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3131,62 +3341,68 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>225800</v>
+      </c>
+      <c r="F48" s="3">
         <v>211800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>206800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>189600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>157300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>152300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>147700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>144700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>143700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>143600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>130700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>123800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>125500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>119200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3199,62 +3415,68 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>323600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>327400</v>
+      </c>
+      <c r="F49" s="3">
         <v>331400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>330200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>326100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>209500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>212800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>213800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>219400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>223600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>228700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>206200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>207600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>213300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>218700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3267,14 +3489,20 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3643,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F52" s="3">
         <v>20300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>17600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3000</v>
       </c>
       <c r="I52" s="3">
         <v>3100</v>
       </c>
       <c r="J52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>429700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>461300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>459500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>456900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>454500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>453200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>451400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>450000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>863300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>870300</v>
+      </c>
+      <c r="F54" s="3">
         <v>862800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>838300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>816600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>624500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>616100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>600300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>589800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>560200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>564600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>525300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>550700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>509300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>429800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>462000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>459800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>457500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>455100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>453500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>451700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,56 +3925,58 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F57" s="3">
         <v>22300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>21600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>22200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>19400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>14600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>23700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>20300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>27300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>23700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>17100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3727,19 +3989,25 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23500</v>
+        <v>28500</v>
       </c>
       <c r="E58" s="3">
         <v>23500</v>
@@ -3748,16 +4016,16 @@
         <v>23500</v>
       </c>
       <c r="G58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I58" s="3">
         <v>18500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>17500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>18300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>18300</v>
       </c>
       <c r="K58" s="3">
         <v>18300</v>
@@ -3775,14 +4043,14 @@
         <v>18300</v>
       </c>
       <c r="P58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="R58" s="3">
         <v>15000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3795,201 +4063,219 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F59" s="3">
         <v>44100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>47600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>40400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>34500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>39700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>37300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>29100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>27400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>22800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>92900</v>
+      </c>
+      <c r="F60" s="3">
         <v>89900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>92700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>86000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>72400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>71800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>65500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>58000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>56200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>52400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>52600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>50500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>47100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>54900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>489700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>514100</v>
+      </c>
+      <c r="F61" s="3">
         <v>518600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>498000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>478600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>323100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>324000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>309700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>326800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>341800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>321900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>330800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>380700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>384800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>334700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4005,55 +4291,61 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F62" s="3">
         <v>75700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>66800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>78100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>62300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>61800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>61000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>64100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>60300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>58100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>23300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>29000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>34100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>95600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>15800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>15800</v>
       </c>
       <c r="S62" s="3">
         <v>15800</v>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>15800</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>674500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>687800</v>
+      </c>
+      <c r="F66" s="3">
         <v>684200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>657500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>642700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>457700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>457600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>436200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>448900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>458400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>432400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>406600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>460200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>466000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>485300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>24600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>20000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>15800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>16100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>16000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,55 +4985,61 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F72" s="3">
         <v>53900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>40500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>18000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-37800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-50300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-31600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-22400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-30300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>5000</v>
       </c>
       <c r="S72" s="3">
         <v>5000</v>
@@ -4700,19 +5048,25 @@
         <v>5000</v>
       </c>
       <c r="U72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W72" s="3">
         <v>4300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>182500</v>
+      </c>
+      <c r="F76" s="3">
         <v>178600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>180900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>173900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>166800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>158500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>164100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>151900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>131400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>127900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>158000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>65000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>84600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>24000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>405300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>442000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>443800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>441500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>439300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>437400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>435700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F81" s="3">
         <v>13400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>22400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>22500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>15800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-46800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>48000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F83" s="3">
         <v>13900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>10600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>10400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>12500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>10800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>10700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>10300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F89" s="3">
         <v>29700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>37000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>19200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>22100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>30500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>32600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-12900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>19600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>8200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>17900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-13500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-5000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-20400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-31600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-130900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-13300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-38300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-184900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>44000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6776,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-13500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>137000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-19600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-17300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>19100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>28000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>49200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>39500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>99600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F102" s="3">
         <v>12100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>25300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>18900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>38200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-44700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>30300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-17700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>41100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>14200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>11700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
     </row>
